--- a/file_checks/correct_genes_wrong_pheno.xlsx
+++ b/file_checks/correct_genes_wrong_pheno.xlsx
@@ -563,7 +563,7 @@
     <t xml:space="preserve">RR_rorS_risk_high</t>
   </si>
   <si>
-    <t xml:space="preserve">XX_Endo</t>
+    <t xml:space="preserve">RR_Endo</t>
   </si>
 </sst>
 </file>
@@ -1451,502 +1451,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.885286969016648</v>
+        <v>0.734041286909474</v>
       </c>
       <c r="B2" t="n">
-        <v>1.67341298862449</v>
+        <v>-0.44767767590496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.528466149550367</v>
+        <v>0.0702403120056099</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.136778811060752</v>
+        <v>-0.936098976830037</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.556145698033792</v>
+        <v>0.0354263226324588</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.44780286668848</v>
+        <v>1.40355143990359</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.276521998765997</v>
+        <v>0.938272261966281</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04242372700925</v>
+        <v>0.0364453446544623</v>
       </c>
       <c r="I2" t="n">
-        <v>1.21073985736117</v>
+        <v>0.45930630272861</v>
       </c>
       <c r="J2" t="n">
-        <v>0.944440484508649</v>
+        <v>-0.189381153740626</v>
       </c>
       <c r="K2" t="n">
-        <v>1.78562574120056</v>
+        <v>-1.12600304878002</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.292435729069607</v>
+        <v>0.208922408191975</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12181041674974</v>
+        <v>0.706442413513955</v>
       </c>
       <c r="N2" t="n">
-        <v>0.155225299276557</v>
+        <v>1.0397717479472</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0551711331301171</v>
+        <v>-0.244504347215886</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0897543995984771</v>
+        <v>-0.128784657170349</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.228492208981596</v>
+        <v>0.667450357949231</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.494651827647788</v>
+        <v>-0.577636457975669</v>
       </c>
       <c r="S2" t="n">
-        <v>0.812303956214793</v>
+        <v>0.674876242296358</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.195856239918747</v>
+        <v>1.48902797287503</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.363044043606456</v>
+        <v>0.360080315451072</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00452882563893965</v>
+        <v>0.679002887087293</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.259841685821503</v>
+        <v>-0.859193877844321</v>
       </c>
       <c r="X2" t="n">
-        <v>1.52806812686963</v>
+        <v>-0.432398284998302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.879076966568522</v>
+        <v>0.053001317034499</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.9986012901986</v>
+        <v>0.716288632640901</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.773818086718594</v>
+        <v>-0.16023513212798</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.452751791953309</v>
+        <v>0.0109184166433539</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.123620908983536</v>
+        <v>-0.160265495525818</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.87014306791677</v>
+        <v>2.61268138074842</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.694021919036761</v>
+        <v>0.17261316941536</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.21144510392373</v>
+        <v>0.120936843957791</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.42791343636622</v>
+        <v>-1.75028209552045</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.295138371720661</v>
+        <v>-0.616736192179628</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.513755627183725</v>
+        <v>0.0314881882281752</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.32258115245625</v>
+        <v>-0.9132911776149</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.23763328444094</v>
+        <v>0.890725243236054</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.56030851210541</v>
+        <v>-0.377840364771742</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.862213822336101</v>
+        <v>-2.00143274714077</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.0429940469896077</v>
+        <v>-0.298757620424908</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.285877206965573</v>
+        <v>-1.28281480771764</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.37832204994594</v>
+        <v>0.296034094200784</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.857198144008654</v>
+        <v>1.51793457333627</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.371943636508949</v>
+        <v>0.839546214492811</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.13366400487536</v>
+        <v>-0.240313720846444</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.78831375056195</v>
+        <v>-1.13279068054362</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.48608332613404</v>
+        <v>-0.553638543580625</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.658575331962022</v>
+        <v>0.503618848010438</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.849625541483701</v>
+        <v>0.191127055217449</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.481600645401515</v>
+        <v>-1.88038346680564</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00942528837132626</v>
+        <v>-0.524436364911886</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.361716741753933</v>
+        <v>-1.15490818178272</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.41823291543701</v>
+        <v>-1.01441017202615</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.07472109857275</v>
+        <v>-2.13761313648776</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0256116662322747</v>
+        <v>0.799005747126589</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.39605913049658</v>
+        <v>-0.306386157424286</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.235514044636106</v>
+        <v>0.465606332584372</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.226481074028634</v>
+        <v>-0.031280487828294</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.542060114138757</v>
+        <v>-1.23680383704404</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.01898004508465</v>
+        <v>-2.37194117983307</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.67174119396408</v>
+        <v>0.00176243793339034</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.664766928445326</v>
+        <v>-0.168676929363554</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.45061961300542</v>
+        <v>0.653668734569372</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.975513398195019</v>
+        <v>-0.434916545582218</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.730710222273747</v>
+        <v>-1.52715954172776</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.308573927508536</v>
+        <v>-1.17743151516271</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.465065809363087</v>
+        <v>-1.56934022780919</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.290320986604139</v>
+        <v>0.0738322876867254</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.04539496023928</v>
+        <v>-1.33597532481371</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.38750237930231</v>
+        <v>-0.271166132121096</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.568698181800731</v>
+        <v>-0.552590830022229</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.251436465387657</v>
+        <v>-1.97748517130768</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.426752795209893</v>
+        <v>-1.0730310986894</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.160470796431556</v>
+        <v>0.744541477769268</v>
       </c>
       <c r="BW2" t="n">
-        <v>-2.28196640000155</v>
+        <v>1.27456475140359</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.943259396995365</v>
+        <v>0.332676795651054</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.285139682045725</v>
+        <v>-0.630344492511251</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.07178936473916</v>
+        <v>-2.24495763037158</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.239322710154177</v>
+        <v>-0.12334609720084</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.33549488633148</v>
+        <v>-0.762504535154681</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.78010771794731</v>
+        <v>0.442122990150858</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.607515959660784</v>
+        <v>-0.42757813986468</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.531852307195601</v>
+        <v>-0.468410152892203</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.55055819351214</v>
+        <v>0.272417313694381</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.48938999683262</v>
+        <v>2.30136064354022</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.670361370788431</v>
+        <v>-0.00232940652814301</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.623365829890504</v>
+        <v>1.56955846383312</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.956708543778496</v>
+        <v>-0.89447515944911</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.5313248840562</v>
+        <v>-0.419240796139969</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.21967151421123</v>
+        <v>-0.126322023754284</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.906272412989573</v>
+        <v>-1.30315227564208</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.925021466250161</v>
+        <v>-0.648290879248834</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.94499458154139</v>
+        <v>-0.388682118927418</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.14822500355617</v>
+        <v>2.10687147834</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.222089112166981</v>
+        <v>-0.0605489803568703</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.201417881018226</v>
+        <v>-3.17527984231881</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.413009492824572</v>
+        <v>-1.36885257059136</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.24839656377605</v>
+        <v>0.745992672384009</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.05295885128247</v>
+        <v>-0.356768500987427</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.12151183758913</v>
+        <v>0.352905417227985</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.297348236644653</v>
+        <v>0.391296042346904</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.421840575156192</v>
+        <v>0.0289298508387012</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.03007806135737</v>
+        <v>0.749616199926856</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.15867214229662</v>
+        <v>0.508282493034132</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.791392766060691</v>
+        <v>-0.749380103631268</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.257748330315786</v>
+        <v>0.286439522783721</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.37937863673129</v>
+        <v>1.77310086706405</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.29910300178009</v>
+        <v>-1.28377409553493</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.180617722756585</v>
+        <v>0.978825221223077</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.13644684854593</v>
+        <v>-0.49907320459665</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.89613853132679</v>
+        <v>0.304860318969282</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.721574900709564</v>
+        <v>-0.334904560840187</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.75802997526996</v>
+        <v>-0.351949464375432</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.55552727986793</v>
+        <v>-0.0974372128202816</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.94380460697477</v>
+        <v>-1.9885563949709</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.850633785277102</v>
+        <v>1.0767572101659</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.00691100453149</v>
+        <v>-0.494307537117683</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.204408077019525</v>
+        <v>-1.06532741123348</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.906717975795137</v>
+        <v>-1.13810726963794</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.00850225742272837</v>
+        <v>0.609790580685509</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.233965596721181</v>
+        <v>1.31373721939999</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.173279074318858</v>
+        <v>1.47058111801546</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0388453502939813</v>
+        <v>1.18941891650049</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.645492910841354</v>
+        <v>-0.90112902189242</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.828233333839159</v>
+        <v>-0.967654087525104</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.242500001942312</v>
+        <v>-0.442410718702453</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.02951506192329</v>
+        <v>-1.02398767137926</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.533794293305303</v>
+        <v>-0.54430840597969</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.44318126364763</v>
+        <v>-0.690176767357381</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.667470621117949</v>
+        <v>0.442216784369971</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.59618749598841</v>
+        <v>-0.706931188260177</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.387027175534785</v>
+        <v>-0.509704602427983</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.99368346376876</v>
+        <v>-0.701399930455654</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0533338850431685</v>
+        <v>-1.08762382797988</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.377820310464403</v>
+        <v>0.771817658073048</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0874425453112868</v>
+        <v>-0.175812353704929</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.908682875704523</v>
+        <v>2.48820328948062</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.269128492408629</v>
+        <v>0.76755555553703</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.19892739636257</v>
+        <v>2.09245868918589</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-2.69138592248273</v>
+        <v>-0.338232344342175</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.59349222893263</v>
+        <v>1.99524139217886</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.01558308778973</v>
+        <v>1.69359316434777</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.123916757072556</v>
+        <v>-1.89031512421681</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.152891878053536</v>
+        <v>-0.961831885506803</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.05641105257946</v>
+        <v>2.42941331701244</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.379087068368552</v>
+        <v>-0.0269294541962495</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.372279055965841</v>
+        <v>-0.485340196520225</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.885154214668194</v>
+        <v>0.130235916332029</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.621229303658971</v>
+        <v>-1.81125616890913</v>
       </c>
       <c r="ET2" t="n">
-        <v>-1.13302539387991</v>
+        <v>-2.0345267927526</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.28741457093383</v>
+        <v>-0.494172107710384</v>
       </c>
       <c r="EV2" t="n">
-        <v>-2.06945831480683</v>
+        <v>0.184366733675115</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.939875071552513</v>
+        <v>1.07638132849302</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.50693046907538</v>
+        <v>1.12843231277736</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.964178504959802</v>
+        <v>-1.23633502979824</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.240789769963403</v>
+        <v>0.247720134222932</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0873415436415626</v>
+        <v>-0.675288718533438</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.206977094799374</v>
+        <v>-1.18968662296138</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.99709008329651</v>
+        <v>1.97316719144262</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.366948240106882</v>
+        <v>0.365457794211806</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.711258926635169</v>
+        <v>0.121832812848345</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.57758297988851</v>
+        <v>0.287796775579159</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.369974340354712</v>
+        <v>0.295050626532427</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.099964792097565</v>
+        <v>-0.86261446557651</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.667660383351021</v>
+        <v>-0.291195787086454</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.259024681835041</v>
+        <v>-2.27713401794568</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1955,28 +1955,28 @@
         <v>0</v>
       </c>
       <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
         <v>1</v>
       </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ2" t="n">
         <v>1</v>
       </c>
       <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
         <v>0</v>
       </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
       <c r="FT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
         <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_genes_wrong_pheno.xlsx
+++ b/file_checks/correct_genes_wrong_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">RR_rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">RR_Endo</t>
@@ -1448,538 +1457,547 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.734041286909474</v>
+        <v>0.0613265208876259</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.44767767590496</v>
+        <v>-0.268486827405409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0702403120056099</v>
+        <v>-0.885956169713687</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.936098976830037</v>
+        <v>0.189008765150209</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0354263226324588</v>
+        <v>-0.624415479719411</v>
       </c>
       <c r="F2" t="n">
-        <v>1.40355143990359</v>
+        <v>0.984054346544423</v>
       </c>
       <c r="G2" t="n">
-        <v>0.938272261966281</v>
+        <v>0.150963450247492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0364453446544623</v>
+        <v>-0.0300643319414574</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45930630272861</v>
+        <v>-1.75990368342856</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.189381153740626</v>
+        <v>-0.0819400961852542</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.12600304878002</v>
+        <v>0.580149853129793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.208922408191975</v>
+        <v>0.967587723663996</v>
       </c>
       <c r="M2" t="n">
-        <v>0.706442413513955</v>
+        <v>-1.07303329149184</v>
       </c>
       <c r="N2" t="n">
-        <v>1.0397717479472</v>
+        <v>2.57732763141297</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.244504347215886</v>
+        <v>-1.13976300712057</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.128784657170349</v>
+        <v>1.52370739869873</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.667450357949231</v>
+        <v>-1.8086611274941</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.577636457975669</v>
+        <v>2.86129445009157</v>
       </c>
       <c r="S2" t="n">
-        <v>0.674876242296358</v>
+        <v>-1.55557364140538</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48902797287503</v>
+        <v>-0.586459558903782</v>
       </c>
       <c r="U2" t="n">
-        <v>0.360080315451072</v>
+        <v>1.84509458264858</v>
       </c>
       <c r="V2" t="n">
-        <v>0.679002887087293</v>
+        <v>0.591270300045525</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.859193877844321</v>
+        <v>-1.7180639631399</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.432398284998302</v>
+        <v>-1.00888200580968</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.053001317034499</v>
+        <v>-0.0517542192139987</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.716288632640901</v>
+        <v>1.18106145617824</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.16023513212798</v>
+        <v>1.12600595271396</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0109184166433539</v>
+        <v>-1.0229226938532</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.160265495525818</v>
+        <v>-0.0161258077744158</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.61268138074842</v>
+        <v>-0.0662522884762913</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.17261316941536</v>
+        <v>-0.130316802601407</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.120936843957791</v>
+        <v>-0.136847420798934</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.75028209552045</v>
+        <v>1.59581590985836</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.616736192179628</v>
+        <v>-0.792520739501463</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0314881882281752</v>
+        <v>-1.19451022199499</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.9132911776149</v>
+        <v>0.490131545649768</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.890725243236054</v>
+        <v>-0.54350249482065</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.377840364771742</v>
+        <v>0.19737420107155</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2.00143274714077</v>
+        <v>0.678029556542111</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.298757620424908</v>
+        <v>0.0879160190574978</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.28281480771764</v>
+        <v>-0.555240865022803</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.296034094200784</v>
+        <v>1.10989819184151</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.51793457333627</v>
+        <v>-0.240763854980361</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.839546214492811</v>
+        <v>1.15977275315665</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.240313720846444</v>
+        <v>1.26156927954946</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.13279068054362</v>
+        <v>0.0612109317653598</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.553638543580625</v>
+        <v>-0.46287220397574</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.503618848010438</v>
+        <v>0.354974122581702</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.191127055217449</v>
+        <v>-1.38717797123869</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.88038346680564</v>
+        <v>-1.57227827509158</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.524436364911886</v>
+        <v>-0.609821231690695</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.15490818178272</v>
+        <v>-2.2551085961452</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.01441017202615</v>
+        <v>0.667709392601799</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.13761313648776</v>
+        <v>-0.0716908363169527</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.799005747126589</v>
+        <v>0.161242373515801</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.306386157424286</v>
+        <v>0.206388905384356</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.465606332584372</v>
+        <v>-0.983829258875287</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.031280487828294</v>
+        <v>0.205922131310146</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.23680383704404</v>
+        <v>0.326198666502241</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.37194117983307</v>
+        <v>-1.04345065953721</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00176243793339034</v>
+        <v>-2.5138121970286</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.168676929363554</v>
+        <v>1.02153862607458</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.653668734569372</v>
+        <v>0.0576952817869104</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.434916545582218</v>
+        <v>0.26979763891366</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.52715954172776</v>
+        <v>-0.949066876990639</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.17743151516271</v>
+        <v>-0.116731461854084</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.56934022780919</v>
+        <v>1.95761580622781</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0738322876867254</v>
+        <v>1.0868218103162</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1.33597532481371</v>
+        <v>0.204741594296765</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.271166132121096</v>
+        <v>-1.73703243018072</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.552590830022229</v>
+        <v>0.866633645945294</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.97748517130768</v>
+        <v>0.583872198174393</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.0730310986894</v>
+        <v>0.50916160116272</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.744541477769268</v>
+        <v>0.108828561004191</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.27456475140359</v>
+        <v>-0.264105251142969</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.332676795651054</v>
+        <v>1.0919373370459</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.630344492511251</v>
+        <v>-0.223137630167303</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-2.24495763037158</v>
+        <v>-0.876543624829472</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.12334609720084</v>
+        <v>0.641919314083291</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.762504535154681</v>
+        <v>-2.19712854628155</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.442122990150858</v>
+        <v>0.632038441836993</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.42757813986468</v>
+        <v>1.88520346104092</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.468410152892203</v>
+        <v>0.332789839992338</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.272417313694381</v>
+        <v>0.466323219535187</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.30136064354022</v>
+        <v>0.433348753329691</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.00232940652814301</v>
+        <v>-0.514464621253509</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.56955846383312</v>
+        <v>-1.58383002164735</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.89447515944911</v>
+        <v>0.799973516696269</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.419240796139969</v>
+        <v>1.87498355280103</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.126322023754284</v>
+        <v>-0.0698338336278198</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.30315227564208</v>
+        <v>-1.46663461845526</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.648290879248834</v>
+        <v>-1.2759146310254</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.388682118927418</v>
+        <v>-0.303956653059337</v>
       </c>
       <c r="CP2" t="n">
-        <v>2.10687147834</v>
+        <v>-0.711640051522556</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.0605489803568703</v>
+        <v>0.499425633012092</v>
       </c>
       <c r="CR2" t="n">
-        <v>-3.17527984231881</v>
+        <v>0.562345762043734</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.36885257059136</v>
+        <v>-1.40030930868648</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.745992672384009</v>
+        <v>-0.470215216740397</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.356768500987427</v>
+        <v>-0.070710185623089</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.352905417227985</v>
+        <v>-0.0827135716262446</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.391296042346904</v>
+        <v>-0.857199287015611</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0289298508387012</v>
+        <v>-1.15085284365223</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.749616199926856</v>
+        <v>0.773586561041788</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.508282493034132</v>
+        <v>0.456517276792528</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.749380103631268</v>
+        <v>-1.00844311645996</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.286439522783721</v>
+        <v>-1.0924175736971</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.77310086706405</v>
+        <v>-0.46289389379578</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.28377409553493</v>
+        <v>0.651656168574611</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.978825221223077</v>
+        <v>-1.49163535381461</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.49907320459665</v>
+        <v>1.00318817434503</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.304860318969282</v>
+        <v>-0.258175689026898</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.334904560840187</v>
+        <v>-1.20870920082648</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.351949464375432</v>
+        <v>0.490095607095825</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0974372128202816</v>
+        <v>0.104658539931267</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.9885563949709</v>
+        <v>-0.31564135556292</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.0767572101659</v>
+        <v>0.482211654197455</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.494307537117683</v>
+        <v>0.972114050149715</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.06532741123348</v>
+        <v>-0.146750969525305</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.13810726963794</v>
+        <v>0.772262968410603</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.609790580685509</v>
+        <v>-0.761345332867322</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.31373721939999</v>
+        <v>1.27516247223335</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.47058111801546</v>
+        <v>2.84910420984197</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.18941891650049</v>
+        <v>-0.790907470723857</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.90112902189242</v>
+        <v>-1.26208768060859</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.967654087525104</v>
+        <v>-0.0507217418283562</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.442410718702453</v>
+        <v>0.2574186095387</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.02398767137926</v>
+        <v>-0.599818590294448</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.54430840597969</v>
+        <v>0.856519373367075</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.690176767357381</v>
+        <v>-1.67314794661211</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.442216784369971</v>
+        <v>3.05044677029432</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.706931188260177</v>
+        <v>-0.0533012530734263</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.509704602427983</v>
+        <v>-0.184969869809754</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.701399930455654</v>
+        <v>-0.842859865381648</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.08762382797988</v>
+        <v>1.17840497712879</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.771817658073048</v>
+        <v>0.145032353208391</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.175812353704929</v>
+        <v>-1.60715867462729</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.48820328948062</v>
+        <v>0.620877957643834</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.76755555553703</v>
+        <v>0.0614298428332925</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.09245868918589</v>
+        <v>-0.737780418747567</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.338232344342175</v>
+        <v>0.0202737377171167</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.99524139217886</v>
+        <v>1.32422448054422</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.69359316434777</v>
+        <v>1.15821138383846</v>
       </c>
       <c r="EM2" t="n">
-        <v>-1.89031512421681</v>
+        <v>0.1298194169839</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.961831885506803</v>
+        <v>0.710423378027056</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.42941331701244</v>
+        <v>-0.0704067146959701</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.0269294541962495</v>
+        <v>-1.77883257729886</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.485340196520225</v>
+        <v>0.310985068120552</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.130235916332029</v>
+        <v>-0.0710918746051317</v>
       </c>
       <c r="ES2" t="n">
-        <v>-1.81125616890913</v>
+        <v>0.976972642961615</v>
       </c>
       <c r="ET2" t="n">
-        <v>-2.0345267927526</v>
+        <v>1.16125109270395</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.494172107710384</v>
+        <v>-0.911274119073738</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.184366733675115</v>
+        <v>1.38098240930978</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.07638132849302</v>
+        <v>-0.111396122587636</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.12843231277736</v>
+        <v>-1.68627655706667</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.23633502979824</v>
+        <v>0.893921865687544</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.247720134222932</v>
+        <v>1.29986447788501</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.675288718533438</v>
+        <v>1.05621644233639</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.18968662296138</v>
+        <v>1.99991964718548</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.97316719144262</v>
+        <v>0.493077363100709</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.365457794211806</v>
+        <v>0.603525765884513</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.121832812848345</v>
+        <v>-0.971060793596117</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.287796775579159</v>
+        <v>-0.108591159467242</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.295050626532427</v>
+        <v>0.104980889734049</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.86261446557651</v>
+        <v>-0.941702733743467</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.291195787086454</v>
+        <v>0.0131964870217344</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-2.27713401794568</v>
+        <v>0.328084217393375</v>
       </c>
       <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
         <v>1</v>
       </c>
       <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
         <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
       </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV2" t="n">
         <v>1</v>
@@ -1991,15 +2009,24 @@
         <v>1</v>
       </c>
       <c r="FY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
         <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
       </c>
       <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/file_checks/correct_genes_wrong_pheno.xlsx
+++ b/file_checks/correct_genes_wrong_pheno.xlsx
@@ -1469,520 +1469,520 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0613265208876259</v>
+        <v>0.687665183053063</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.268486827405409</v>
+        <v>0.896818749907371</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.885956169713687</v>
+        <v>0.028116191315037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.189008765150209</v>
+        <v>1.26836794257538</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.624415479719411</v>
+        <v>1.89544356871186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.984054346544423</v>
+        <v>2.12481403472307</v>
       </c>
       <c r="G2" t="n">
-        <v>0.150963450247492</v>
+        <v>-0.766841862174938</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0300643319414574</v>
+        <v>-0.43417166259752</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.75990368342856</v>
+        <v>-1.13710047476976</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0819400961852542</v>
+        <v>-1.16010589396473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.580149853129793</v>
+        <v>1.49217673215811</v>
       </c>
       <c r="L2" t="n">
-        <v>0.967587723663996</v>
+        <v>-0.325214628283161</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.07303329149184</v>
+        <v>0.382142016411391</v>
       </c>
       <c r="N2" t="n">
-        <v>2.57732763141297</v>
+        <v>0.0934761252230313</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.13976300712057</v>
+        <v>-0.158622970148536</v>
       </c>
       <c r="P2" t="n">
-        <v>1.52370739869873</v>
+        <v>1.45645469348491</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.8086611274941</v>
+        <v>1.90461526099839</v>
       </c>
       <c r="R2" t="n">
-        <v>2.86129445009157</v>
+        <v>-0.297553390588182</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.55557364140538</v>
+        <v>0.448426163601317</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.586459558903782</v>
+        <v>1.19746576480136</v>
       </c>
       <c r="U2" t="n">
-        <v>1.84509458264858</v>
+        <v>-0.161181021595906</v>
       </c>
       <c r="V2" t="n">
-        <v>0.591270300045525</v>
+        <v>-1.07370606157716</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.7180639631399</v>
+        <v>-1.44043086411863</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.00888200580968</v>
+        <v>-0.628332428775776</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0517542192139987</v>
+        <v>-0.295780226155801</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.18106145617824</v>
+        <v>1.4650336604783</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.12600595271396</v>
+        <v>0.224668147703056</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.0229226938532</v>
+        <v>-0.390153066973293</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0161258077744158</v>
+        <v>0.084160798661036</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0662522884762913</v>
+        <v>-0.0946932900119309</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.130316802601407</v>
+        <v>0.723200129479303</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.136847420798934</v>
+        <v>0.610476787675464</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.59581590985836</v>
+        <v>0.132459244433904</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.792520739501463</v>
+        <v>0.0894369658789958</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.19451022199499</v>
+        <v>0.61114610829031</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.490131545649768</v>
+        <v>-0.19331120405366</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.54350249482065</v>
+        <v>0.684964608854813</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.19737420107155</v>
+        <v>0.334630661906652</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.678029556542111</v>
+        <v>-0.363612114457989</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0879160190574978</v>
+        <v>0.356245929057223</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.555240865022803</v>
+        <v>-1.31627347458928</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.10989819184151</v>
+        <v>-0.283870662932131</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.240763854980361</v>
+        <v>-0.0674643123133033</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.15977275315665</v>
+        <v>-0.604524495443541</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.26156927954946</v>
+        <v>-0.462653259378936</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0612109317653598</v>
+        <v>-0.64691672430058</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.46287220397574</v>
+        <v>1.60641327589709</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.354974122581702</v>
+        <v>-0.373432656299647</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.38717797123869</v>
+        <v>0.134565807489427</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.57227827509158</v>
+        <v>-0.27583588413223</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.609821231690695</v>
+        <v>-0.231058904081525</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.2551085961452</v>
+        <v>0.160525837008133</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.667709392601799</v>
+        <v>0.911216046938938</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.0716908363169527</v>
+        <v>-0.173094375083071</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.161242373515801</v>
+        <v>-0.171392478335757</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.206388905384356</v>
+        <v>0.278241292031611</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.983829258875287</v>
+        <v>-0.190670023120449</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.205922131310146</v>
+        <v>-0.279735614308011</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.326198666502241</v>
+        <v>-1.24714764577612</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.04345065953721</v>
+        <v>0.0355521826997761</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.5138121970286</v>
+        <v>-1.44294419790978</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.02153862607458</v>
+        <v>-0.704638130515121</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0576952817869104</v>
+        <v>0.548529823584132</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.26979763891366</v>
+        <v>1.2161067164677</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.949066876990639</v>
+        <v>0.91865159596208</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.116731461854084</v>
+        <v>-0.348873141442838</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.95761580622781</v>
+        <v>0.498483993000643</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.0868218103162</v>
+        <v>0.307225948789237</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.204741594296765</v>
+        <v>0.312012182211216</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.73703243018072</v>
+        <v>0.406865682010401</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.866633645945294</v>
+        <v>-0.108913183933451</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.583872198174393</v>
+        <v>0.586769297554255</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.50916160116272</v>
+        <v>0.232111476584166</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.108828561004191</v>
+        <v>-0.825169396429552</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.264105251142969</v>
+        <v>0.84482625641521</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.0919373370459</v>
+        <v>2.09349591994556</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.223137630167303</v>
+        <v>0.485138994268429</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.876543624829472</v>
+        <v>0.8043010369431</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.641919314083291</v>
+        <v>0.434212903446137</v>
       </c>
       <c r="CB2" t="n">
-        <v>-2.19712854628155</v>
+        <v>-0.719426607236333</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.632038441836993</v>
+        <v>1.31891020590733</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.88520346104092</v>
+        <v>0.393060667162005</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.332789839992338</v>
+        <v>0.509549033819246</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.466323219535187</v>
+        <v>-0.269654397098136</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.433348753329691</v>
+        <v>-0.853050478350783</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.514464621253509</v>
+        <v>1.69940244195799</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.58383002164735</v>
+        <v>-0.961778011236079</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.799973516696269</v>
+        <v>-1.36942872082014</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.87498355280103</v>
+        <v>0.155392487261689</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.0698338336278198</v>
+        <v>1.04045413542112</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.46663461845526</v>
+        <v>0.137917772407481</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.2759146310254</v>
+        <v>0.355748496143578</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.303956653059337</v>
+        <v>-0.631948159253652</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.711640051522556</v>
+        <v>1.67098044603551</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.499425633012092</v>
+        <v>-0.346685453535559</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.562345762043734</v>
+        <v>1.44074932810688</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.40030930868648</v>
+        <v>0.1082476888237</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.470215216740397</v>
+        <v>-0.048572756894641</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.070710185623089</v>
+        <v>2.37652373264516</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0827135716262446</v>
+        <v>-0.130466583165597</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.857199287015611</v>
+        <v>1.87227967250279</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.15085284365223</v>
+        <v>0.5425685814975</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.773586561041788</v>
+        <v>0.00926147545967193</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.456517276792528</v>
+        <v>-0.252949596279622</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.00844311645996</v>
+        <v>1.3075895386358</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.0924175736971</v>
+        <v>-0.302291694522383</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.46289389379578</v>
+        <v>0.270158306208132</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.651656168574611</v>
+        <v>-0.0756602724139975</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.49163535381461</v>
+        <v>-0.108964371440651</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.00318817434503</v>
+        <v>0.753036848439925</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.258175689026898</v>
+        <v>-2.51170699323792</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.20870920082648</v>
+        <v>-0.37767301182078</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.490095607095825</v>
+        <v>1.07996215804618</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.104658539931267</v>
+        <v>1.05393864257738</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.31564135556292</v>
+        <v>0.314059560552062</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.482211654197455</v>
+        <v>1.31951840604443</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.972114050149715</v>
+        <v>0.108127397303391</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.146750969525305</v>
+        <v>0.42990402360683</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.772262968410603</v>
+        <v>0.300078502278334</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.761345332867322</v>
+        <v>0.125735801384428</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.27516247223335</v>
+        <v>-1.54840594757722</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.84910420984197</v>
+        <v>-0.904004400529956</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.790907470723857</v>
+        <v>-0.461080112303029</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.26208768060859</v>
+        <v>0.806417959527589</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.0507217418283562</v>
+        <v>-0.712149614921604</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.2574186095387</v>
+        <v>-0.222448101350319</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.599818590294448</v>
+        <v>-0.202593703491026</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.856519373367075</v>
+        <v>-1.43431428099231</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.67314794661211</v>
+        <v>1.31601474595636</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.05044677029432</v>
+        <v>-0.719275750904633</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0533012530734263</v>
+        <v>0.541004561260377</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.184969869809754</v>
+        <v>-0.0818949733178148</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.842859865381648</v>
+        <v>-1.54152924102574</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.17840497712879</v>
+        <v>0.816113755673907</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.145032353208391</v>
+        <v>-0.330065114252746</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.60715867462729</v>
+        <v>0.0389960135362365</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.620877957643834</v>
+        <v>-0.482310540733325</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0614298428332925</v>
+        <v>-0.147461707189105</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.737780418747567</v>
+        <v>0.338597968225749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0202737377171167</v>
+        <v>-0.941429939763494</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.32422448054422</v>
+        <v>0.116674199953934</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.15821138383846</v>
+        <v>-1.48022660147478</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1298194169839</v>
+        <v>-1.90859619415683</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.710423378027056</v>
+        <v>2.13128175224775</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0704067146959701</v>
+        <v>0.863511763611022</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.77883257729886</v>
+        <v>-1.40528540793216</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.310985068120552</v>
+        <v>-0.113574361006755</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.0710918746051317</v>
+        <v>-1.49593286863778</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.976972642961615</v>
+        <v>0.350731625358552</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.16125109270395</v>
+        <v>-1.16874874903668</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.911274119073738</v>
+        <v>-1.06404657849446</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.38098240930978</v>
+        <v>0.47747462422128</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.111396122587636</v>
+        <v>0.399611060971218</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.68627655706667</v>
+        <v>-0.328833408143102</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.893921865687544</v>
+        <v>-0.16460799824892</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.29986447788501</v>
+        <v>0.500666986347251</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.05621644233639</v>
+        <v>-1.65144065582346</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.99991964718548</v>
+        <v>-1.91933349605697</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.493077363100709</v>
+        <v>-0.543121224399424</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.603525765884513</v>
+        <v>1.02664479211282</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.971060793596117</v>
+        <v>0.0512250810200883</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.108591159467242</v>
+        <v>-0.20340145011313</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.104980889734049</v>
+        <v>-1.23173696208416</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.941702733743467</v>
+        <v>2.64782670793783</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0131964870217344</v>
+        <v>0.533610547017807</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.328084217393375</v>
+        <v>-0.956154441749271</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
       </c>
       <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
         <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
       </c>
       <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
         <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -2003,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
         <v>0</v>
       </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
       <c r="FY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="GE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
